--- a/biology/Botanique/Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande)/Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande).xlsx
+++ b/biology/Botanique/Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande)/Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Agriculture_et_des_For%C3%AAts_(Nouvelle-Z%C3%A9lande)</t>
+          <t>Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Ministère de l'Agriculture et des Forêts (Ministry of Agriculture and Forestry)  de Nouvelle-Zélande (en Maori, Te Manatu Ahuwhenua, Ngāherehere) est un ancien ministère dont les domaines de compétence s'étendent sur l'agriculture, l'exploitation des forêts et la biosécurité. Ses locaux sont situés à Wellington. Il est intégré en 2012 au ministère des Industries primaires (en).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_l%27Agriculture_et_des_For%C3%AAts_(Nouvelle-Z%C3%A9lande)</t>
+          <t>Ministère_de_l'Agriculture_et_des_Forêts_(Nouvelle-Zélande)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la politique   Portail de l’agriculture et l’agronomie   Portail du bois et de la forêt   Portail de la Nouvelle-Zélande                  </t>
